--- a/Documents/CompTiaNotes/CompTia Acronyms.xlsx
+++ b/Documents/CompTiaNotes/CompTia Acronyms.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clinton.tak\Documents\GitHub\Cross-Storage-\Documents\CompTiaNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clintontak/GitHub/Cross-Storage/Documents/CompTiaNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="207">
   <si>
     <t>Important Acronyms</t>
   </si>
@@ -360,12 +366,297 @@
   </si>
   <si>
     <t xml:space="preserve">Mean Time to Repair </t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Netwrok Address Translation</t>
+  </si>
+  <si>
+    <t>NCP</t>
+  </si>
+  <si>
+    <t>Network Control Protocol</t>
+  </si>
+  <si>
+    <t>Network Basic Input Output System</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Network Interface Card</t>
+  </si>
+  <si>
+    <t>N-IDS</t>
+  </si>
+  <si>
+    <t>Network-based Intrusion Detection System</t>
+  </si>
+  <si>
+    <t>NNTP</t>
+  </si>
+  <si>
+    <t>Network News Transfer Protocol</t>
+  </si>
+  <si>
+    <t>NTFS</t>
+  </si>
+  <si>
+    <t>New Technology File System</t>
+  </si>
+  <si>
+    <t>OES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Enterprise Server </t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>Password Authentication Protocol</t>
+  </si>
+  <si>
+    <t>PBX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Branch Exchange </t>
+  </si>
+  <si>
+    <t>PGP</t>
+  </si>
+  <si>
+    <t>Pretty Good Privacy</t>
+  </si>
+  <si>
+    <t>PKC</t>
+  </si>
+  <si>
+    <t>Public Key Cryptography</t>
+  </si>
+  <si>
+    <t>PKCS</t>
+  </si>
+  <si>
+    <t>Public Key Cryptography Standards</t>
+  </si>
+  <si>
+    <t>PKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Key Infrastructure </t>
+  </si>
+  <si>
+    <t>PKIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Public Key Infrastructure x.509</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Post Office Protocol</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>Point to Point Protocol</t>
+  </si>
+  <si>
+    <t>PPTP</t>
+  </si>
+  <si>
+    <t>Point to Point Tunneling Protocol</t>
+  </si>
+  <si>
+    <t>Remote Authentication Dial-in User Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBAC </t>
+  </si>
+  <si>
+    <t>Role/Rule -BasedAccess Control</t>
+  </si>
+  <si>
+    <t>RIP</t>
+  </si>
+  <si>
+    <t>Routing Information Protocol</t>
+  </si>
+  <si>
+    <t>RRAS Routing and Remote Access Services</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Rivest Shamir Adleman</t>
+  </si>
+  <si>
+    <t>RSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Shell </t>
+  </si>
+  <si>
+    <t>SAINT</t>
+  </si>
+  <si>
+    <t>Security Adminsitrator's Integrated Network Tool</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure Hash Algorithm </t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>Service Level Agreement</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Single Loss Expectancy</t>
+  </si>
+  <si>
+    <t>S/MIME</t>
+  </si>
+  <si>
+    <t>Secure Multipurpose Internet Mail Extensions</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Network Management Protocol </t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>Sequenced Packet Exchange</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol</t>
+  </si>
+  <si>
+    <t>VNC</t>
+  </si>
+  <si>
+    <t>Virtual Network Computing</t>
+  </si>
+  <si>
+    <t>WAP</t>
+  </si>
+  <si>
+    <t>Wiress AccessPoint/ Wireless Application Protocol</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>Wide Area Network</t>
+  </si>
+  <si>
+    <t>WDP</t>
+  </si>
+  <si>
+    <t>Wireless Datagram Protocol</t>
+  </si>
+  <si>
+    <t>WEP</t>
+  </si>
+  <si>
+    <t>Wired Equivalent Privacy</t>
+  </si>
+  <si>
+    <t>WML</t>
+  </si>
+  <si>
+    <t>Wireless Markup Languae</t>
+  </si>
+  <si>
+    <t>WSP</t>
+  </si>
+  <si>
+    <t>Wireless Session Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTLS </t>
+  </si>
+  <si>
+    <t>Wireless Transport Layer Security</t>
+  </si>
+  <si>
+    <t>WTP</t>
+  </si>
+  <si>
+    <t>Wireless Transaction Protocol</t>
+  </si>
+  <si>
+    <t>FTPS</t>
+  </si>
+  <si>
+    <t>TFTP</t>
+  </si>
+  <si>
+    <t>UDP 69</t>
+  </si>
+  <si>
+    <t>TCP 20</t>
+  </si>
+  <si>
+    <t>TCP 21</t>
+  </si>
+  <si>
+    <t>TCP 989/990</t>
+  </si>
+  <si>
+    <t>TCP 22</t>
+  </si>
+  <si>
+    <t>TCP 23</t>
+  </si>
+  <si>
+    <t>TCP 25</t>
+  </si>
+  <si>
+    <t>UDP 53</t>
+  </si>
+  <si>
+    <t>TCP 80</t>
+  </si>
+  <si>
+    <t>TCP 443</t>
+  </si>
+  <si>
+    <t>SFTP</t>
+  </si>
+  <si>
+    <t>TCP 115</t>
+  </si>
+  <si>
+    <t>UDP 161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,13 +696,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,32 +1018,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -766,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -780,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -790,11 +1081,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -804,11 +1095,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -818,11 +1109,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -832,11 +1123,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -846,11 +1137,11 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -864,7 +1155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -874,11 +1165,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -886,13 +1177,13 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -900,13 +1191,13 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -914,13 +1205,13 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -928,13 +1219,13 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -942,13 +1233,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -956,470 +1247,741 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>1812</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>3389</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>71</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="2"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/CompTiaNotes/CompTia Acronyms.xlsx
+++ b/Documents/CompTiaNotes/CompTia Acronyms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460"/>
+    <workbookView xWindow="13820" yWindow="460" windowWidth="11780" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="218">
   <si>
     <t>Important Acronyms</t>
   </si>
@@ -86,9 +86,6 @@
     <t>NetBIOS</t>
   </si>
   <si>
-    <t>137/138/139</t>
-  </si>
-  <si>
     <t>IMAP</t>
   </si>
   <si>
@@ -651,6 +648,42 @@
   </si>
   <si>
     <t>UDP 161</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission Control Protocol </t>
+  </si>
+  <si>
+    <t>UDP 137/138/139</t>
+  </si>
+  <si>
+    <t>TCP 110</t>
+  </si>
+  <si>
+    <t>Terminal Access Controller Access Control System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">older authentication protocol common to UNIX networks that allows a remote access server to forward a user's logon pw to an authentication server </t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure Copy </t>
+  </si>
+  <si>
+    <t>Trivial File Transfer Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH File Tranfer Protocol </t>
+  </si>
+  <si>
+    <t>File Transfer Protcol Secure</t>
+  </si>
+  <si>
+    <t>FTP + SSL and TLS</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1078,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1059,10 +1092,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1073,80 +1106,80 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1157,97 +1190,97 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
         <v>193</v>
-      </c>
-      <c r="E11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>110</v>
+      <c r="E13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
         <v>204</v>
-      </c>
-      <c r="E14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>143</v>
@@ -1258,46 +1291,46 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1308,16 +1341,16 @@
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>3389</v>
@@ -1325,623 +1358,664 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="B89" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,6 +2056,12 @@
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/CompTiaNotes/CompTia Acronyms.xlsx
+++ b/Documents/CompTiaNotes/CompTia Acronyms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="460" windowWidth="11780" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1252,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
         <v>204</v>
